--- a/docs/_content/achtergronddocumentatie/ontwerp/artefacten/Artefacten_en_Cases.xlsx
+++ b/docs/_content/achtergronddocumentatie/ontwerp/artefacten/Artefacten_en_Cases.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vvng.sharepoint.com/sites/Loggingenverwerkingsregister/Gedeelde documenten/Logging/Informatieanalyse/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PaulJansen\Documents\GitHub\gemma-verwerkingenlogging\docs\_content\achtergronddocumentatie\ontwerp\artefacten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{11CFA73A-9CE6-4AF7-90C3-590D11886ABA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A3866528-DD27-47C8-AF9F-93119DE60989}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0265D1-8BB1-427A-931D-D3A82B3C7679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{0459427B-9CE8-1B44-923B-1B5E7343D872}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{0459427B-9CE8-1B44-923B-1B5E7343D872}"/>
   </bookViews>
   <sheets>
     <sheet name="Versie" sheetId="3" r:id="rId1"/>
     <sheet name="Vraagstukken x Cases" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -338,9 +338,6 @@
     <t>B0601: Terminologie: Handeling of Gebeurtenis</t>
   </si>
   <si>
-    <t>B8157: Opname van Verwerking.ID en Verwerking Afnemer</t>
-  </si>
-  <si>
     <t>B3908: Opname van Vertrouwelijkheid</t>
   </si>
   <si>
@@ -417,13 +414,16 @@
   </si>
   <si>
     <t>V3934: Loggen van afgeleide informatie</t>
+  </si>
+  <si>
+    <t>B8157: Opname van Verwerking.ID en Verwerking ID Afnemer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -597,7 +597,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -679,7 +679,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -981,14 +981,14 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="30.95">
+    <row r="1" spans="1:1" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="18.95">
+    <row r="3" spans="1:1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>1</v>
       </c>
@@ -1003,13 +1003,13 @@
   <dimension ref="A1:AU72"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="AR3" sqref="AR3"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C33" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.95"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.125" style="2" customWidth="1"/>
     <col min="2" max="2" width="64.875" style="18" customWidth="1"/>
@@ -1020,7 +1020,7 @@
     <col min="48" max="48" width="3.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="4" customFormat="1" ht="23.25">
+    <row r="1" spans="1:47" s="4" customFormat="1" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="23" t="s">
         <v>2</v>
       </c>
@@ -1073,7 +1073,7 @@
       <c r="AT1" s="7"/>
       <c r="AU1" s="7"/>
     </row>
-    <row r="2" spans="1:47" s="14" customFormat="1" ht="109.5">
+    <row r="2" spans="1:47" s="14" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="B2" s="20"/>
       <c r="C2" s="15" t="s">
         <v>4</v>
@@ -1141,7 +1141,7 @@
       <c r="AT2" s="17"/>
       <c r="AU2" s="17"/>
     </row>
-    <row r="3" spans="1:47" ht="45.95" customHeight="1">
+    <row r="3" spans="1:47" ht="45.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="AU3" s="10"/>
     </row>
-    <row r="4" spans="1:47" ht="18.75">
+    <row r="4" spans="1:47" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>57</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:47" ht="15.75">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>58</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="15.75">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B6" s="21" t="s">
         <v>59</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="15.75">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B7" s="21" t="s">
         <v>61</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="8" spans="1:47" ht="15.75">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
         <v>62</v>
       </c>
@@ -1491,7 +1491,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="9" spans="1:47" ht="15.75">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B9" s="21" t="s">
         <v>63</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="10" spans="1:47" ht="15.75">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B10" s="21" t="s">
         <v>64</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="11" spans="1:47" ht="15.75">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B11" s="21" t="s">
         <v>65</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="12" spans="1:47" ht="15.75">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B12" s="21" t="s">
         <v>66</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="13" spans="1:47" ht="15.75">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B13" s="21" t="s">
         <v>67</v>
       </c>
@@ -1756,7 +1756,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="14" spans="1:47" ht="15.75">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>68</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="15.75">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B15" s="21" t="s">
         <v>69</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="16" spans="1:47" ht="15.75">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="B16" s="21" t="s">
         <v>70</v>
       </c>
@@ -1923,7 +1923,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="17" spans="1:46" ht="15.75">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B17" s="21" t="s">
         <v>71</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="18" spans="1:46" ht="15.75">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
         <v>72</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:46" ht="15.75">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B19" s="21" t="s">
         <v>73</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="20" spans="1:46" ht="15.75">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B20" s="21" t="s">
         <v>75</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="21" spans="1:46" ht="18.75">
+    <row r="21" spans="1:46" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="24" t="s">
         <v>76</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:46" ht="15.75">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A22" s="22" t="s">
         <v>77</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:46" ht="15.75">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B23" s="21" t="s">
         <v>78</v>
       </c>
@@ -2166,7 +2166,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="24" spans="1:46" ht="15.75">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B24" s="21" t="s">
         <v>79</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="25" spans="1:46" ht="15.75">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B25" s="21" t="s">
         <v>80</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="26" spans="1:46" ht="15.75">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B26" s="21" t="s">
         <v>81</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="27" spans="1:46" ht="15.75">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B27" s="21" t="s">
         <v>82</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="28" spans="1:46" ht="15.75">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B28" s="21" t="s">
         <v>83</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="29" spans="1:46" ht="15.75">
+    <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B29" s="21" t="s">
         <v>84</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="30" spans="1:46" ht="15.75">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>85</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:46" ht="15.75">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B31" s="21" t="s">
         <v>86</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="32" spans="1:46" ht="15.75">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>87</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="33" spans="1:46" ht="15.75">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B33" s="21" t="s">
         <v>88</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="34" spans="1:46" ht="15.75">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B34" s="21" t="s">
         <v>89</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="35" spans="1:46" ht="15.75">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B35" s="21" t="s">
         <v>90</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="36" spans="1:46" ht="15.75">
+    <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B36" s="21" t="s">
         <v>91</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="37" spans="1:46" ht="15.75">
+    <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="22" t="s">
         <v>72</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:46" ht="15.75">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B38" s="21" t="s">
         <v>92</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="39" spans="1:46" ht="15.75">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B39" s="21" t="s">
         <v>93</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="40" spans="1:46" ht="15.75">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
         <v>94</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:46" ht="15.75">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B41" s="21" t="s">
         <v>95</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="42" spans="1:46" ht="15.75">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B42" s="21" t="s">
         <v>96</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="43" spans="1:46" ht="15.75">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B43" s="21" t="s">
         <v>97</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="44" spans="1:46" ht="15.75">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B44" s="21" t="s">
         <v>98</v>
       </c>
@@ -3187,7 +3187,7 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="45" spans="1:46" ht="15.75">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B45" s="21" t="s">
         <v>99</v>
       </c>
@@ -3240,9 +3240,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="46" spans="1:46" ht="15.75">
+    <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B46" s="21" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
       <c r="C46" s="26" t="s">
         <v>60</v>
@@ -3299,9 +3299,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="47" spans="1:46" ht="15.75">
+    <row r="47" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B47" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C47" s="26" t="s">
         <v>60</v>
@@ -3354,9 +3354,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="48" spans="1:46" ht="15.75">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B48" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C48" s="26" t="s">
         <v>60</v>
@@ -3409,9 +3409,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="49" spans="2:46" ht="15.75">
+    <row r="49" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B49" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C49" s="26" t="s">
         <v>60</v>
@@ -3462,9 +3462,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="50" spans="2:46" ht="15.75">
+    <row r="50" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B50" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C50" s="26" t="s">
         <v>60</v>
@@ -3517,9 +3517,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="51" spans="2:46" ht="15.75">
+    <row r="51" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B51" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C51" s="26" t="s">
         <v>60</v>
@@ -3570,9 +3570,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="52" spans="2:46" ht="15.75">
+    <row r="52" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B52" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C52" s="26" t="s">
         <v>60</v>
@@ -3623,9 +3623,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="53" spans="2:46" ht="15.75">
+    <row r="53" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B53" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C53" s="26" t="s">
         <v>60</v>
@@ -3676,9 +3676,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="54" spans="2:46" ht="15.75">
+    <row r="54" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B54" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" s="26" t="s">
         <v>60</v>
@@ -3729,9 +3729,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="55" spans="2:46" ht="15.75">
+    <row r="55" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B55" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C55" s="26" t="s">
         <v>60</v>
@@ -3782,9 +3782,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="56" spans="2:46" ht="15.75">
+    <row r="56" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B56" s="21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C56" s="25"/>
       <c r="D56" s="25"/>
@@ -3839,9 +3839,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="57" spans="2:46" ht="15.75">
+    <row r="57" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B57" s="21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C57" s="26" t="s">
         <v>60</v>
@@ -3892,9 +3892,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="58" spans="2:46" ht="15.75">
+    <row r="58" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B58" s="21" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C58" s="26" t="s">
         <v>60</v>
@@ -3945,9 +3945,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="59" spans="2:46" ht="15.75">
+    <row r="59" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B59" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C59" s="25"/>
       <c r="D59" s="25"/>
@@ -3998,9 +3998,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="60" spans="2:46" ht="15.75">
+    <row r="60" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B60" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" s="26" t="s">
         <v>60</v>
@@ -4051,9 +4051,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="61" spans="2:46" ht="15.75">
+    <row r="61" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B61" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C61" s="25"/>
       <c r="D61" s="25"/>
@@ -4106,9 +4106,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="62" spans="2:46" ht="15.75">
+    <row r="62" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B62" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="25"/>
       <c r="D62" s="25"/>
@@ -4159,9 +4159,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="63" spans="2:46" ht="15.75">
+    <row r="63" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B63" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="25"/>
       <c r="D63" s="25"/>
@@ -4212,9 +4212,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="64" spans="2:46" ht="15.75">
+    <row r="64" spans="2:46" x14ac:dyDescent="0.25">
       <c r="B64" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="25"/>
       <c r="D64" s="25"/>
@@ -4267,9 +4267,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="65" spans="1:46" ht="15.75">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B65" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C65" s="25"/>
       <c r="D65" s="25"/>
@@ -4324,18 +4324,18 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="66" spans="1:46" ht="15.75">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AT66" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:46" ht="15.75">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B67" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C67" s="26" t="s">
         <v>60</v>
@@ -4390,9 +4390,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="68" spans="1:46" ht="15.75">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B68" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C68" s="25"/>
       <c r="D68" s="25"/>
@@ -4444,9 +4444,9 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="69" spans="1:46" ht="15.75">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B69" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C69" s="25"/>
       <c r="D69" s="25"/>
@@ -4498,18 +4498,18 @@
         <v>n.v.t.</v>
       </c>
     </row>
-    <row r="70" spans="1:46" ht="15.75">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A70" s="22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT70" s="9" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:46" ht="15.75">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B71" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C71" s="25"/>
       <c r="D71" s="25"/>
@@ -4560,9 +4560,9 @@
         <v>Aanwezig</v>
       </c>
     </row>
-    <row r="72" spans="1:46" ht="15.75">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
       <c r="B72" s="21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="25"/>
       <c r="D72" s="25"/>
@@ -4813,6 +4813,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4821,20 +4827,37 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21C37E8-3099-4418-8BFC-AC48D1B0B091}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C21C37E8-3099-4418-8BFC-AC48D1B0B091}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="50c41270-795a-4e27-95f1-a07e9552a52c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{878ECE05-C8CE-4380-94A9-C2AFA412D2C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6798ABC-2DF4-499E-B9B7-49BC56B8854F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6798ABC-2DF4-499E-B9B7-49BC56B8854F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{878ECE05-C8CE-4380-94A9-C2AFA412D2C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>